--- a/seven_station_series_output/data/Total_series_TMean.xlsx
+++ b/seven_station_series_output/data/Total_series_TMean.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1360"/>
+  <dimension ref="A1:H1361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35603,13 +35603,39 @@
       <c r="A1360" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B1360" t="inlineStr"/>
-      <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr"/>
-      <c r="E1360" t="inlineStr"/>
-      <c r="F1360" t="inlineStr"/>
-      <c r="G1360" t="inlineStr"/>
-      <c r="H1360" t="inlineStr"/>
+      <c r="B1360" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>16.42</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>16.24</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B1361" t="inlineStr"/>
+      <c r="C1361" t="inlineStr"/>
+      <c r="D1361" t="inlineStr"/>
+      <c r="E1361" t="inlineStr"/>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="inlineStr"/>
+      <c r="H1361" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
